--- a/biology/Botanique/Thlaspi/Thlaspi.xlsx
+++ b/biology/Botanique/Thlaspi/Thlaspi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thlaspi est un genre de plantes herbacées de la famille des Brassicacées.
 En français, on les nomme les tabourets, mais le nom commun s'emploie pour des espèces appartenant aussi à d'autres genres.
-La taxinomie du genre diffère selon les auteurs[1]. 
-Des espèces autrefois classées comme Thlaspi se retrouvent actuellement dans les genres Noccaea, Kandis et Iberis. La limite entre ces genres n'est pas clairement établie[2].
-Les graines de la plante nommée thlaspi étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle[3].
+La taxinomie du genre diffère selon les auteurs. 
+Des espèces autrefois classées comme Thlaspi se retrouvent actuellement dans les genres Noccaea, Kandis et Iberis. La limite entre ces genres n'est pas clairement établie.
+Les graines de la plante nommée thlaspi étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Thlaspi alliaceum L.
@@ -558,8 +572,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calendrier républicain
-Dans le calendrier républicain, le Thlaspi était le nom attribué au 21e jour du mois de pluviôse[4].
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Thlaspi était le nom attribué au 21e jour du mois de pluviôse.
 </t>
         </is>
       </c>
@@ -589,6 +608,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
